--- a/data/trans_camb/P6-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>6,11</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 33,62</t>
+          <t>-4,44; 10,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 14,02</t>
+          <t>-3,83; 11,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 11,46</t>
+          <t>-4,53; 10,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 7,48</t>
+          <t>-4,46; 16,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 9,62</t>
+          <t>-2,25; 20,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 12,81</t>
+          <t>-0,28; 23,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 19,46</t>
+          <t>-2,98; 10,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 9,24</t>
+          <t>-1,93; 12,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 9,79</t>
+          <t>-1,12; 14,78</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>185,04%</t>
+          <t>117,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>73,51%</t>
+          <t>131,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,12%</t>
+          <t>109,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>74,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>67,4%</t>
+          <t>130,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>119,67%</t>
+          <t>171,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>100,76%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>70,04%</t>
+          <t>128,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>89,44%</t>
+          <t>152,98%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,32; 2678,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,83; 762,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,26; 598,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,36; 320,66</t>
+          <t>-68,4; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,75; 418,13</t>
+          <t>-48,65; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 531,71</t>
+          <t>-31,85; inf</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 547,11</t>
+          <t>-56,13; 839,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 284,03</t>
+          <t>-39,4; 1013,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 310,5</t>
+          <t>-24,44; 1249,22</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>11,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,29</t>
+          <t>11,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>11,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 7,52</t>
+          <t>-3,87; 8,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 11,04</t>
+          <t>-0,02; 14,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 15,31</t>
+          <t>4,21; 21,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 6,88</t>
+          <t>-5,15; 7,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 14,12</t>
+          <t>1,78; 16,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 16,98</t>
+          <t>3,94; 18,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 5,55</t>
+          <t>-2,64; 6,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 10,57</t>
+          <t>2,86; 13,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 13,99</t>
+          <t>6,19; 17,37</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>40,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>105,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>157,59%</t>
+          <t>183,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>80,58%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>105,69%</t>
+          <t>114,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>83,57%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>120,75%</t>
+          <t>139,25%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 190,71</t>
+          <t>-43,86; 235,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 273,62</t>
+          <t>-15,65; 379,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,99; 385,42</t>
+          <t>28,87; 568,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 95,89</t>
+          <t>-38,44; 107,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,79; 194,2</t>
+          <t>8,85; 230,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,95; 226,42</t>
+          <t>24,72; 276,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 87,36</t>
+          <t>-27,62; 105,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,33; 159,57</t>
+          <t>25,54; 218,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57,77; 213,13</t>
+          <t>59,25; 293,77</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,82</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,82</t>
+          <t>11,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 7,82</t>
+          <t>-6,33; 7,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 14,33</t>
+          <t>-1,22; 14,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,1; 18,32</t>
+          <t>1,63; 18,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 6,84</t>
+          <t>-5,69; 6,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 12,25</t>
+          <t>-0,61; 13,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 17,05</t>
+          <t>5,19; 21,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,35</t>
+          <t>-4,1; 4,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 11,34</t>
+          <t>0,89; 10,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 15,94</t>
+          <t>5,78; 16,89</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>81,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>120,53%</t>
+          <t>133,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>59,76%</t>
+          <t>69,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>107,82%</t>
+          <t>149,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>70,3%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>113,21%</t>
+          <t>142,39%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 132,7</t>
+          <t>-59,5; 168,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,1; 259,85</t>
+          <t>-20,78; 340,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,82; 297,85</t>
+          <t>8,44; 420,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 90,72</t>
+          <t>-50,1; 138,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 164,46</t>
+          <t>-7,54; 248,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,37; 227,32</t>
+          <t>41,03; 367,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 70,89</t>
+          <t>-42,01; 75,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,08; 150,58</t>
+          <t>5,26; 176,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>48,59; 202,78</t>
+          <t>51,3; 275,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 8,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 9,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,86; 12,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 4,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,36; 9,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,26; 13,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 8,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,85</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>124,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>70,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>105,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>76,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>112,23%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 164,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,6; 179,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>57,38; 235,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 59,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>21,12; 127,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,47; 172,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 74,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,59; 129,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>66,52; 176,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5,76</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9,44</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7,4</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11,53</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6,59</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 5,8</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 10,54</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4,39; 15,02</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 5,42</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 12,21</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 16,72</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 4,28</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3,44; 10,05</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 14,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>27,98%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>95,01%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>155,73%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>15,46%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>85,56%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>133,26%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>88,53%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>140,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-30,93; 131,27</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 242,4</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>45,68; 357,97</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-24,31; 82,02</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>24,39; 178,28</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>62,58; 249,28</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-15,19; 73,67</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>38,18; 170,31</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>77,67; 234,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
